--- a/data/2020-high/actual_generation_sweden.xlsx
+++ b/data/2020-high/actual_generation_sweden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv.sharepoint.com/teams/testing-testing/Shared Documents/General/Grid Models/Nordic grid 2022-2023/open-source-model/data/2020-high/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dnv-nordics-model\data\2020-high\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35480611-4459-4068-960C-DEE442305A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEAB48A-F96E-4F4D-94FE-B98ACBD01674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03021465-C3D8-4D5C-80B3-DEEC71AB6E9F}"/>
+    <workbookView xWindow="-30990" yWindow="-3240" windowWidth="28800" windowHeight="15435" xr2:uid="{03021465-C3D8-4D5C-80B3-DEEC71AB6E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +78,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,9 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C497C76-2F51-4B18-8EB9-0B4C43BD98AB}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -438,24 +453,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3682</v>
+        <v>3289</v>
       </c>
       <c r="C2">
-        <v>5932</v>
+        <v>5850</v>
       </c>
       <c r="D2">
-        <v>1992</v>
+        <v>1266</v>
       </c>
       <c r="E2">
-        <v>282</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -466,50 +481,47 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7775</v>
+        <v>5776</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f>145</f>
-        <v>145</v>
-      </c>
-      <c r="D4">
-        <f>715+6</f>
-        <v>721</v>
-      </c>
-      <c r="E4">
-        <f>53+152</f>
-        <v>205</v>
+      <c r="B4" s="3">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1070</v>
+      </c>
+      <c r="E4" s="3">
+        <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>642</v>
+        <v>1137</v>
       </c>
       <c r="C5">
-        <v>1411</v>
+        <v>1194</v>
       </c>
       <c r="D5">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="E5">
-        <v>399</v>
+        <v>940</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -526,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -543,8 +555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -553,6 +566,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db2da579-6238-4230-a668-c475825d65c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EE7390DBBCC5E47940B99B4F6A76B3C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afd03528c0929f75bbe2a73e27d6997f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xmlns:ns3="db2da579-6238-4230-a668-c475825d65c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a152944ee5428ad2892f61bce71dae57" ns2:_="" ns3:_="">
     <xsd:import namespace="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
@@ -769,34 +802,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db2da579-6238-4230-a668-c475825d65c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F35523CE-839D-49A6-A2A7-C85CBCF8B59A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55F8889-DA26-4F97-B1C1-CADC20BBBFC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55F8889-DA26-4F97-B1C1-CADC20BBBFC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191470BF-5651-4904-89BB-F2970EBE57E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db2da579-6238-4230-a668-c475825d65c8"/>
+    <ds:schemaRef ds:uri="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191470BF-5651-4904-89BB-F2970EBE57E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F35523CE-839D-49A6-A2A7-C85CBCF8B59A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
+    <ds:schemaRef ds:uri="db2da579-6238-4230-a668-c475825d65c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>